--- a/biology/Médecine/Hérodicos/Hérodicos.xlsx
+++ b/biology/Médecine/Hérodicos/Hérodicos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9rodicos</t>
+          <t>Hérodicos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hérodicos (en grec ancien Ήρóðιĸος / Hêródikos) est un médecin grec du Ve siècle av. J.-C. Natif de Mégare[1], il professait à Sélymbrie, en Thrace, sur la Propontide. Il fut l'un des professeurs d’Hippocrate de Cos[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hérodicos (en grec ancien Ήρóðιĸος / Hêródikos) est un médecin grec du Ve siècle av. J.-C. Natif de Mégare, il professait à Sélymbrie, en Thrace, sur la Propontide. Il fut l'un des professeurs d’Hippocrate de Cos.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9rodicos</t>
+          <t>Hérodicos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Notice</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est considéré comme le premier à avoir utilisé l'exercice physique comme méthode thérapeutique pour le traitement des maladies et la préservation de la santé. Il recommande une bonne alimentation et des massages combinés à l’utilisation d'herbes médicinales et d'huiles essentielles ; ses théories alliant médecine et gymnastique font de lui le précurseur de la médecine du sport. Hérodicos était également pédotribe, professeur de gymnastique[3] et sport : il décrivait précisément la manière de réaliser un massage : que les mouvements soient d'abord lents et doux, puis plus rapides, avec une pression de plus en plus forte en terminant par un massage plus doux[4]. Hérodicos fut élève des sophistes ; Platon attribue à Hérodicos la recommandation d'une marche à pied aller-retour entre Athènes et Mégare[5], soit une distance de plus de 70 milles ; Socrate poursuit par « après être monté sur les Murs ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme le premier à avoir utilisé l'exercice physique comme méthode thérapeutique pour le traitement des maladies et la préservation de la santé. Il recommande une bonne alimentation et des massages combinés à l’utilisation d'herbes médicinales et d'huiles essentielles ; ses théories alliant médecine et gymnastique font de lui le précurseur de la médecine du sport. Hérodicos était également pédotribe, professeur de gymnastique et sport : il décrivait précisément la manière de réaliser un massage : que les mouvements soient d'abord lents et doux, puis plus rapides, avec une pression de plus en plus forte en terminant par un massage plus doux. Hérodicos fut élève des sophistes ; Platon attribue à Hérodicos la recommandation d'une marche à pied aller-retour entre Athènes et Mégare, soit une distance de plus de 70 milles ; Socrate poursuit par « après être monté sur les Murs ».
 </t>
         </is>
       </c>
